--- a/utils/GuidedKarobarData.xlsx
+++ b/utils/GuidedKarobarData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\VisualStudioProjects\Karobar_Revamp_Selenium\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C827FC4-EEEB-4547-8D07-15328669CA9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99863323-7A68-4BBB-971B-1B7312ED70F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="221">
   <si>
     <t>Total To Receive</t>
   </si>
@@ -614,10 +614,6 @@
   </si>
   <si>
     <t>off by a 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Party 17
-</t>
   </si>
   <si>
     <t>Billing Items:
@@ -666,20 +662,6 @@
     <t>Cash Sale Return</t>
   </si>
   <si>
-    <t xml:space="preserve">Billing Items:
-Item 4:  
-22.40 PCS @ Rs. 369.50  
-Item 5:  
-4.25 @ Rs. 3561.77  
-Item 7:  
-6.50 JAR @ Rs. 656.45  
-Item 13:  
-7.75 CASE @ Rs. 875.75  
-Item 19:  
-2.80 @ Rs. 4555.45  
-Charge 1: Rs. 500.75  </t>
-  </si>
-  <si>
     <t>of by 0.03
 &lt;&lt;(2837.94) app</t>
   </si>
@@ -689,17 +671,6 @@
   </si>
   <si>
     <t>Cash Purchase Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Items:
-Item 6:  
-9.75 CAN @ Rs. 369.50  
-Item 8:  
-15.45 KG @ Rs. 986.99  
-Item 10:  
-8.25 BOX @ Rs. 986.30  
-Tax: 13%  
-Charge 1: Rs. 400.50  </t>
   </si>
   <si>
     <t>&lt;&lt;(30897.59) App</t>
@@ -713,20 +684,6 @@
 Item 17:  
 5.50 BTL @ Rs. 458.56  
 Tax: 13%  </t>
-  </si>
-  <si>
-    <t>Quotation No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Items
-Item 6:  
-9.75 CAN @ Rs. 369.50  
-Item 8:  
-15.45 KG @ Rs. 986.99  with 6.6% Discount
-Item 10:  
-8.25 BOX @ Rs. 986.30  
-Tax: 13%  
-</t>
   </si>
   <si>
     <t>off by 0.03</t>
@@ -867,19 +824,6 @@
   <si>
     <t xml:space="preserve">Billing Items:
 Item 3:  
-6.25 BOX @ Rs. 880.99  
-Item 6:  
-12.10 CAN @ Rs. 369.75  
-Item 8:  
-9.85 KG @ Rs. 986.99  
-Item 12:  
-18.20 BOX @ Rs. 980.25  
-Overall Discount: 8.75%  
-Tax: 13%  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Items:
-Item 3:  
 8.10 BOX @ Rs. 880.25  
 Item 8:  
 11.35 KG @ Rs. 986.60  
@@ -891,56 +835,6 @@
 3.75 @ Rs. 4555.75  
 Overall Discount: 9.75%  
 Tax: 13%  </t>
-  </si>
-  <si>
-    <t>Billing Items:
-Item 2:
-69 @ Rs. 1107.88 
-Item 8:
-71.66 KG @ Rs. Rs. 873.87
-Item 17:
-33.33 BTL @ Rs. 11.11 with 3.3% Discount
-Item 20:
-12.88 DZN @ Rs. 49.07
-Overall Discount: Rs. 1200.33
-Charge 1: Rs. 1700.99
-Charge 2: Rs. 2200.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Items
-Item 1:  
-7.30 @ Rs. 650.45  
-Item 4:  
-18.40 PCS @ Rs. 369.99  
-Item 14:  
-5.50 BAGS @ Rs. 458.99  
-Item 20:  
-6.85 BOX @ Rs. 955.99  
-Overall Discount: 10.50%  
-Tax: 13%  
-Charge 1: Rs. 350.75  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Items
-Item 8:  
-18.25 KG @ Rs. 986.99  
-Item 9:  
-5.75 @ Rs. 650.50  
-Item 12:  
-10.20 BOX @ Rs. 980.25  
-Item 13:  
-8.10 CASE @ Rs. 875.99  with 9% Discount
-Item 15:  
-6.50 BOR @ Rs. 788.45  
-Item 16:  
-3.85 @ Rs. 3636.69  
-Item 19:  
-2.90 @ Rs. 4555.75 with 8.8% Discount  
-Overall Discount: 9.50%  
-Tax: 13%  
-Charge 1: Rs. 450.25
-Charge 2: Rs. 866.99  
-</t>
   </si>
   <si>
     <t>Billing Items:
@@ -1026,6 +920,109 @@
 Item 12:  
 12.30 PCS@ Rs. 90.25  
 Tax: 13%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party 17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Items:
+Item 6:  
+9.75 CAN @ Rs. 369.50  
+Item 8:  
+15.45 KG @ Rs. 986.99  with 6.6% Discount
+Item 10:  
+8.25 BOX @ Rs. 986.30  
+Tax: 13%  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Items:
+Item 1:  
+7.30 @ Rs. 650.45  
+Item 4:  
+18.40 PCS @ Rs. 369.99  
+Item 14:  
+5.50 BAGS @ Rs. 458.99  
+Item 20:  
+6.85 BOX @ Rs. 955.99  
+Overall Discount: 10.50%  
+Tax: 13%  
+Charge 1: Rs. 350.75  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Items:
+Item 8:  
+18.25 KG @ Rs. 986.99  
+Item 9:  
+5.75 @ Rs. 650.50  
+Item 12:  
+10.20 BOX @ Rs. 980.25  
+Item 13:  
+8.10 CASE @ Rs. 875.99  with 9% Discount
+Item 15:  
+6.50 BOR @ Rs. 788.45  
+Item 16:  
+3.85 @ Rs. 3636.69  
+Item 19:  
+2.90 @ Rs. 4555.75 with 8.8% Discount  
+Overall Discount: 9.50%  
+Tax: 13%  
+Charge 1: Rs. 450.25
+Charge 2: Rs. 866.99  
+</t>
+  </si>
+  <si>
+    <t>Billing Items:
+Item 2:
+69 @ Rs. 1107.88 
+Item 8:
+71.66 KG @ Rs. 873.87
+Item 17:
+33.33 BTL @ Rs. 11.11 with 3.3% Discount
+Item 20:
+12.88 DZN @ Rs. 49.07
+Overall Discount: Rs. 1200.33
+Charge 1: Rs. 1700.99
+Charge 2: Rs. 2200.11</t>
+  </si>
+  <si>
+    <t>Billing Items:
+Item 6:  
+9.75 CAN @ Rs. 369.50
+Item 8:  
+15.45 KG @ Rs. 986.99
+Item 10:  
+8.25 BOX @ Rs. 986.30
+Tax: 13%  
+Charge 1: Rs. 400.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Items:
+Item 3:  
+6.25 BOX @ Rs. 880.99  
+Item 6:  
+12.10 CAN @ Rs. 369.75  
+Item 8:
+9.85 KG @ Rs. 986.99  
+Item 12:  
+18.20 BOX @ Rs. 980.25  
+Overall Discount: 8.75%  
+Tax: 13%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Items:
+Item 4:  
+22.40 PCS @ Rs. 369.50  
+Item 5:
+4.25 @ Rs. 3561.77  
+Item 7:  
+6.50 JAR @ Rs. 656.45  
+Item 13:  
+7.75 CASE @ Rs. 875.75  
+Item 19:  
+2.80 @ Rs. 4555.45  
+Charge 1: Rs. 500.75  </t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1163,19 +1160,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,28 +1483,28 @@
       <c r="J6" s="6"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="9"/>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="M12" s="18" t="s">
+      <c r="K12" s="22"/>
+      <c r="M12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="P12" s="18" t="s">
+      <c r="N12" s="22"/>
+      <c r="P12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -2234,15 +2234,15 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="18" customWidth="1"/>
     <col min="4" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
@@ -2257,7 +2257,7 @@
         <v>178</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>166</v>
@@ -2306,7 +2306,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D2" s="13">
         <v>2670</v>
@@ -2390,7 +2390,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D4" s="13">
         <v>38510.400000000001</v>
@@ -2433,7 +2433,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D5" s="13">
         <v>1928.92</v>
@@ -2476,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D6" s="13">
         <v>18023.169999999998</v>
@@ -2562,7 +2562,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D8" s="13">
         <v>565320.32999999996</v>
@@ -2607,7 +2607,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D9" s="13">
         <v>125453.23</v>
@@ -2652,7 +2652,7 @@
         <v>179</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D10" s="13">
         <v>77212</v>
@@ -2696,8 +2696,8 @@
       <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>203</v>
+      <c r="C11" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="D11" s="13">
         <v>28846.5</v>
@@ -2735,22 +2735,22 @@
       <c r="AC11" s="12"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="20"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="20"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="20"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="20"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="20"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="20"/>
+      <c r="C20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2766,7 +2766,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2788,7 +2788,7 @@
         <v>178</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>166</v>
@@ -2817,7 +2817,7 @@
         <v>183</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D2" s="15">
         <v>31005.82</v>
@@ -2842,7 +2842,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D3" s="15">
         <v>30704.52</v>
@@ -2888,7 +2888,7 @@
         <v>183</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D5" s="15">
         <v>46695.85</v>
@@ -2907,11 +2907,11 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>186</v>
+      <c r="B6" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D6" s="15">
         <v>55065.36</v>
@@ -2932,11 +2932,11 @@
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="D7" s="15">
         <v>6937.06</v>
@@ -2962,7 +2962,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2977,142 +2977,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:9" ht="185.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="16">
         <v>38711.08</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="16" t="s">
         <v>181</v>
       </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="16">
+        <v>47724.32</v>
+      </c>
+      <c r="E3" s="16">
+        <v>47724.32</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="16">
+        <v>568.69000000000005</v>
+      </c>
+      <c r="E4" s="16">
+        <v>86.46</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2837.97</v>
+      </c>
+      <c r="E5" s="16">
+        <v>837</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="16">
+        <v>35920.129999999997</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5986.99</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="4">
-        <v>47724.32</v>
-      </c>
-      <c r="E3" s="4">
-        <v>47724.32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4">
-        <v>568.69000000000005</v>
-      </c>
-      <c r="E4" s="4">
-        <v>86.46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2837.97</v>
-      </c>
-      <c r="E5" s="4">
-        <v>837</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="4">
-        <v>35920.129999999997</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5986.99</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,147 +3139,148 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="19" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="30" style="19" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="16">
+        <v>30897.62</v>
+      </c>
+      <c r="E2" s="20">
+        <v>30897.62</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="16">
+        <v>4589.6899999999996</v>
+      </c>
+      <c r="E3" s="16">
+        <v>458.69</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="4">
-        <v>30897.62</v>
-      </c>
-      <c r="E2" s="10">
-        <v>30897.62</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D4" s="16">
+        <v>24614.37</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4589.6899999999996</v>
-      </c>
-      <c r="E3" s="4">
-        <v>458.69</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="4">
-        <v>24614.37</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="16">
         <v>61067.12</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="16">
         <v>1067.02</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="16">
         <v>142756.10999999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="16">
         <v>42598.66</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3284,7 +3297,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3300,13 +3313,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>166</v>
@@ -3329,14 +3342,14 @@
         <v>59</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D2" s="15">
         <v>29359.85</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G2" s="16"/>
     </row>
@@ -3348,7 +3361,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" s="15">
         <v>21213.97</v>
@@ -3367,14 +3380,14 @@
         <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" s="15">
         <v>72272.429999999993</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -3881,7 +3894,7 @@
         <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
@@ -3908,7 +3921,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H5" s="4">
         <v>369</v>
@@ -3956,7 +3969,7 @@
         <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G7" s="4">
         <v>6.9</v>
@@ -4112,7 +4125,7 @@
         <v>102</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G13" s="4">
         <v>6.6</v>
@@ -4170,7 +4183,7 @@
         <v>132</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G15" s="4">
         <v>12</v>
@@ -4346,7 +4359,9 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/utils/GuidedKarobarData.xlsx
+++ b/utils/GuidedKarobarData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\VisualStudioProjects\Karobar_Revamp_Selenium\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99863323-7A68-4BBB-971B-1B7312ED70F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E9232-2416-4EDD-8115-5D567DCC6117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Overview" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <sheet name="Purchase Return Data" sheetId="14" r:id="rId14"/>
     <sheet name="Quotation Data" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="225">
   <si>
     <t>Total To Receive</t>
   </si>
@@ -1024,12 +1024,24 @@
 2.80 @ Rs. 4555.45  
 Charge 1: Rs. 500.75  </t>
   </si>
+  <si>
+    <t>3,66,618.27</t>
+  </si>
+  <si>
+    <t>Party balance right after adding parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After adding data</t>
+  </si>
+  <si>
+    <t>P&amp;L, closing stock right after adding item data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1081,8 +1093,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,6 +1139,16 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1123,10 +1159,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1172,12 +1210,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1394,29 +1437,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:Q33"/>
+  <dimension ref="B1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1480,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1497,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1516,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1482,31 +1527,31 @@
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="F12" s="21" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="9"/>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="M12" s="21" t="s">
+      <c r="K12" s="25"/>
+      <c r="M12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="P12" s="21" t="s">
+      <c r="N12" s="25"/>
+      <c r="P12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1585,7 +1630,7 @@
         <v>5440.1</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1623,7 +1668,7 @@
         <v>2420.34</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1661,7 +1706,7 @@
         <v>8505.69</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1699,7 +1744,7 @@
         <v>1519.05</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1725,7 +1770,7 @@
         <v>2914.94</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1746,7 +1791,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1766,7 +1811,7 @@
         <v>4380.68</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -1786,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1806,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1826,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1846,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
@@ -1867,7 +1912,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1887,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1907,7 +1952,7 @@
         <v>873.99</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
@@ -1927,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
@@ -1947,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
@@ -1967,7 +2012,7 @@
         <v>3729.12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>73</v>
       </c>
@@ -1987,7 +2032,7 @@
         <v>91791.45</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
@@ -2007,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
@@ -2027,13 +2072,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="22">
+        <f>SUMIF('Party Data'!E2:E100, "Receivable", 'Party Data'!D2:D100)</f>
+        <v>3032.12</v>
+      </c>
+      <c r="D37" s="23">
+        <v>5553.48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2046,20 +2119,22 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>176</v>
       </c>
@@ -2082,7 +2157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2096,7 +2171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2110,7 +2185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2124,7 +2199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2138,7 +2213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2152,7 +2227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2166,7 +2241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2180,7 +2255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2194,7 +2269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2208,7 +2283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2238,18 +2313,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="18" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="18" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>177</v>
       </c>
@@ -2298,7 +2373,7 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2341,7 +2416,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2382,7 +2457,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2425,7 +2500,7 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2468,7 +2543,7 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
     </row>
-    <row r="6" spans="1:29" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2511,7 +2586,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2554,7 +2629,7 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
     </row>
-    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2599,7 +2674,7 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" spans="1:29" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="205.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2644,7 +2719,7 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
-    <row r="10" spans="1:29" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2689,7 +2764,7 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2734,22 +2809,22 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="17"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="17"/>
     </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="17"/>
     </row>
   </sheetData>
@@ -2769,18 +2844,18 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -2809,7 +2884,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2834,7 +2909,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2859,7 +2934,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2880,7 +2955,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2903,7 +2978,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2928,7 +3003,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="409.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2948,7 +3023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2965,18 +3040,18 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -3005,7 +3080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="185.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3030,7 +3105,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3055,7 +3130,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3076,7 +3151,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3101,7 +3176,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3142,19 +3217,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="19" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="19" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="19" customWidth="1"/>
     <col min="8" max="8" width="30" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="19"/>
+    <col min="9" max="9" width="14.6640625" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -3183,7 +3258,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3207,7 +3282,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3224,7 +3299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3244,7 +3319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3264,7 +3339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3300,18 +3375,18 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -3334,7 +3409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3353,7 +3428,7 @@
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3372,7 +3447,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3404,18 +3479,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3507,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -3449,7 +3524,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -3466,7 +3541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -3483,7 +3558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3500,7 +3575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -3517,7 +3592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -3534,7 +3609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -3551,7 +3626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3568,7 +3643,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3585,7 +3660,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3602,7 +3677,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -3619,7 +3694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3636,7 +3711,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -3653,7 +3728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -3670,7 +3745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -3687,7 +3762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -3704,7 +3779,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -3721,7 +3796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -3738,7 +3813,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -3755,7 +3830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -3785,21 +3860,22 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="5" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -3831,7 +3907,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -3854,7 +3930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -3877,7 +3953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -3909,7 +3985,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -3933,7 +4009,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -3952,7 +4028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
@@ -3984,7 +4060,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4010,7 +4086,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -4042,7 +4118,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -4063,7 +4139,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -4089,7 +4165,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
@@ -4108,7 +4184,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -4140,7 +4216,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -4166,7 +4242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>130</v>
       </c>
@@ -4198,7 +4274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -4224,7 +4300,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -4243,7 +4319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
@@ -4273,7 +4349,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -4296,7 +4372,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -4315,7 +4391,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -4359,21 +4435,22 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -4396,7 +4473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -4410,7 +4487,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -4427,7 +4504,7 @@
         <v>45.69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -4441,7 +4518,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>157</v>
       </c>
@@ -4455,7 +4532,7 @@
         <v>566.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -4469,7 +4546,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -4486,7 +4563,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -4500,7 +4577,7 @@
         <v>65.98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>157</v>
       </c>
@@ -4514,7 +4591,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -4531,7 +4608,7 @@
         <v>635.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -4548,7 +4625,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -4565,7 +4642,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>157</v>
       </c>
@@ -4582,7 +4659,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -4599,7 +4676,7 @@
         <v>98.45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>157</v>
       </c>
@@ -4616,7 +4693,7 @@
         <v>875.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>156</v>
       </c>
@@ -4630,7 +4707,7 @@
         <v>452.96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>157</v>
       </c>
@@ -4647,7 +4724,7 @@
         <v>365.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>156</v>
       </c>
@@ -4664,7 +4741,7 @@
         <v>425.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>157</v>
       </c>
@@ -4681,7 +4758,7 @@
         <v>690.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>156</v>
       </c>
@@ -4698,7 +4775,7 @@
         <v>120.93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>157</v>
       </c>
@@ -4727,14 +4804,16 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4742,7 +4821,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -4750,7 +4829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4758,7 +4837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -4766,7 +4845,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -4788,17 +4867,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>163</v>
       </c>
@@ -4818,7 +4897,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -4829,7 +4908,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -4840,7 +4919,7 @@
         <v>56.36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
@@ -4854,7 +4933,7 @@
         <v>214.98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -4865,7 +4944,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -4879,7 +4958,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -4890,7 +4969,7 @@
         <v>5699.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -4901,7 +4980,7 @@
         <v>458.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4915,7 +4994,7 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -4926,7 +5005,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -4937,7 +5016,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>157</v>
       </c>
@@ -4948,7 +5027,7 @@
         <v>535.36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
@@ -4971,20 +5050,22 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5007,7 +5088,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5021,7 +5102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5035,7 +5116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5049,7 +5130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5063,7 +5144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5077,7 +5158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5091,7 +5172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5105,7 +5186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5119,7 +5200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5133,7 +5214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5147,7 +5228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5161,7 +5242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5175,7 +5256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5189,7 +5270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5203,7 +5284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5217,7 +5298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5231,7 +5312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5245,7 +5326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5259,7 +5340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5273,7 +5354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5301,18 +5382,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5335,7 +5416,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5349,7 +5430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5363,7 +5444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5377,7 +5458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5391,7 +5472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5405,7 +5486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5419,7 +5500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5433,7 +5514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5447,7 +5528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5464,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5478,7 +5559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5492,7 +5573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5506,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5520,7 +5601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5534,7 +5615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5548,7 +5629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5562,7 +5643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5576,7 +5657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5590,7 +5671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5604,7 +5685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5632,18 +5713,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>173</v>
       </c>
@@ -5666,7 +5747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5680,7 +5761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5694,7 +5775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5708,7 +5789,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5722,7 +5803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5736,7 +5817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5750,7 +5831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5764,7 +5845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5778,7 +5859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5792,7 +5873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5806,7 +5887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5820,7 +5901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>

--- a/utils/GuidedKarobarData.xlsx
+++ b/utils/GuidedKarobarData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\VisualStudioProjects\Karobar_Revamp_Selenium\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E9232-2416-4EDD-8115-5D567DCC6117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D435D0-1294-4B94-A58A-C947F0B776AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Overview" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Item Adjustment Data" sheetId="4" r:id="rId4"/>
     <sheet name="Bank Accounts Data" sheetId="5" r:id="rId5"/>
     <sheet name="Transaction Adjustment Data" sheetId="6" r:id="rId6"/>
-    <sheet name="Payments In Data" sheetId="7" r:id="rId7"/>
-    <sheet name="Payments Out Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Payments Out Data" sheetId="8" r:id="rId7"/>
+    <sheet name="Payments In Data" sheetId="7" r:id="rId8"/>
     <sheet name="Expenses Data" sheetId="9" r:id="rId9"/>
     <sheet name="Other Income Data" sheetId="10" r:id="rId10"/>
     <sheet name="Sales Data" sheetId="11" r:id="rId11"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="232">
   <si>
     <t>Total To Receive</t>
   </si>
@@ -1028,13 +1028,38 @@
     <t>3,66,618.27</t>
   </si>
   <si>
-    <t>Party balance right after adding parties</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After adding data</t>
   </si>
   <si>
     <t>P&amp;L, closing stock right after adding item data</t>
+  </si>
+  <si>
+    <t>Account adjustments</t>
+  </si>
+  <si>
+    <t>Cash: -1583.58
+eSewa: -297.86
+NMB: 643.64
+Nabil: 3310.94</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Party balance right after adding parties. To receive and to give from dashboard</t>
+  </si>
+  <si>
+    <t>After payment in, dashboard to give and to receive</t>
+  </si>
+  <si>
+    <t>3,99,476.28</t>
+  </si>
+  <si>
+    <t>P&amp;L closing stock after item adjustment are added</t>
+  </si>
+  <si>
+    <t>Manage Account: 
+Cash: +5563.45, NMB: +1974.05, NABIL: +18925.63, eSewa:  +1328.5</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1189,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1211,12 +1236,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1437,31 +1465,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:Q38"/>
+  <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="8" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1509,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1526,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1545,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1527,31 +1556,31 @@
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="F12" s="24" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="F12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="9"/>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="M12" s="24" t="s">
+      <c r="K12" s="24"/>
+      <c r="M12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="P12" s="24" t="s">
+      <c r="N12" s="24"/>
+      <c r="P12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1659,7 @@
         <v>5440.1</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1697,7 @@
         <v>2420.34</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1735,7 @@
         <v>8505.69</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1744,7 +1773,7 @@
         <v>1519.05</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1770,7 +1799,7 @@
         <v>2914.94</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1820,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1811,7 +1840,7 @@
         <v>4380.68</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -1831,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1851,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1871,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1891,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
@@ -1912,7 +1941,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1932,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1952,7 +1981,7 @@
         <v>873.99</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
@@ -1972,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
@@ -1992,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
@@ -2012,7 +2041,7 @@
         <v>3729.12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>73</v>
       </c>
@@ -2032,7 +2061,7 @@
         <v>91791.45</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
@@ -2052,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
@@ -2072,31 +2101,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="22">
+        <v>227</v>
+      </c>
+      <c r="C37" s="25">
         <f>SUMIF('Party Data'!E2:E100, "Receivable", 'Party Data'!D2:D100)</f>
         <v>3032.12</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="26">
         <v>5553.48</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="27">
+        <v>1146.95</v>
+      </c>
+      <c r="D41" s="28">
+        <v>31459.49</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2123,18 +2182,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>176</v>
       </c>
@@ -2157,7 +2216,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2171,7 +2230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2185,7 +2244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2199,7 +2258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2213,7 +2272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2227,7 +2286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2241,7 +2300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2255,7 +2314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2269,7 +2328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2283,7 +2342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2309,22 +2368,22 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="18" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="18" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>177</v>
       </c>
@@ -2373,7 +2432,7 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2416,7 +2475,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2457,7 +2516,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2500,7 +2559,7 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2543,7 +2602,7 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
     </row>
-    <row r="6" spans="1:29" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2586,7 +2645,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2629,7 +2688,7 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
     </row>
-    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2674,7 +2733,7 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" spans="1:29" ht="205.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2719,7 +2778,7 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
-    <row r="10" spans="1:29" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2764,7 +2823,7 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2809,22 +2868,22 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="17"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="17"/>
     </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="17"/>
     </row>
   </sheetData>
@@ -2841,21 +2900,21 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -2884,7 +2943,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2909,7 +2968,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2934,7 +2993,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2955,7 +3014,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2978,7 +3037,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3003,7 +3062,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="409.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3023,7 +3082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3040,18 +3099,18 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -3080,7 +3139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="185.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3105,7 +3164,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3130,7 +3189,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3151,7 +3210,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3176,7 +3235,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3217,19 +3276,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="19" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="19" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="30" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="12.6640625" style="19"/>
+    <col min="9" max="9" width="14.7109375" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -3258,7 +3317,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3282,7 +3341,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3299,7 +3358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3319,7 +3378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3339,7 +3398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3375,18 +3434,18 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>177</v>
       </c>
@@ -3409,7 +3468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3428,7 +3487,7 @@
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3447,7 +3506,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3482,15 +3541,15 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -3507,7 +3566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -3524,7 +3583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -3541,7 +3600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -3558,7 +3617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3575,7 +3634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -3592,7 +3651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -3609,7 +3668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -3626,7 +3685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3643,7 +3702,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3660,7 +3719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3677,7 +3736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -3694,7 +3753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3711,7 +3770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -3728,7 +3787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -3745,7 +3804,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -3762,7 +3821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -3779,7 +3838,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -3796,7 +3855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -3813,7 +3872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -3830,7 +3889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -3860,22 +3919,22 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -3907,7 +3966,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -3930,7 +3989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -3953,7 +4012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -3985,7 +4044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -4009,7 +4068,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -4028,7 +4087,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
@@ -4060,7 +4119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -4118,7 +4177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -4139,7 +4198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -4165,7 +4224,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
@@ -4184,7 +4243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -4216,7 +4275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -4242,7 +4301,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>130</v>
       </c>
@@ -4274,7 +4333,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -4300,7 +4359,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -4319,7 +4378,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
@@ -4349,7 +4408,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -4372,7 +4431,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -4391,7 +4450,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -4439,18 +4498,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -4473,7 +4532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -4487,7 +4546,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -4504,7 +4563,7 @@
         <v>45.69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -4518,7 +4577,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>157</v>
       </c>
@@ -4532,7 +4591,7 @@
         <v>566.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -4546,7 +4605,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -4563,7 +4622,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -4577,7 +4636,7 @@
         <v>65.98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>157</v>
       </c>
@@ -4591,7 +4650,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -4608,7 +4667,7 @@
         <v>635.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -4625,7 +4684,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -4642,7 +4701,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>157</v>
       </c>
@@ -4659,7 +4718,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -4676,7 +4735,7 @@
         <v>98.45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>157</v>
       </c>
@@ -4693,7 +4752,7 @@
         <v>875.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>156</v>
       </c>
@@ -4707,7 +4766,7 @@
         <v>452.96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>157</v>
       </c>
@@ -4724,7 +4783,7 @@
         <v>365.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>156</v>
       </c>
@@ -4741,7 +4800,7 @@
         <v>425.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>157</v>
       </c>
@@ -4758,7 +4817,7 @@
         <v>690.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>156</v>
       </c>
@@ -4775,7 +4834,7 @@
         <v>120.93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>157</v>
       </c>
@@ -4804,16 +4863,16 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4821,7 +4880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -4829,7 +4888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4837,7 +4896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -4845,7 +4904,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -4865,19 +4924,21 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>163</v>
       </c>
@@ -4897,7 +4958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -4908,7 +4969,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -4919,7 +4980,7 @@
         <v>56.36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
@@ -4933,7 +4994,7 @@
         <v>214.98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -4944,7 +5005,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -4958,7 +5019,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -4969,7 +5030,7 @@
         <v>5699.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -4980,7 +5041,7 @@
         <v>458.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -4994,7 +5055,7 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -5005,7 +5066,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -5016,7 +5077,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>157</v>
       </c>
@@ -5027,7 +5088,7 @@
         <v>535.36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
@@ -5044,28 +5105,361 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4">
+        <v>800</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4">
+        <v>546.69000000000005</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4">
+        <v>123.88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4">
+        <v>596.6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4">
+        <v>785</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4">
+        <v>255</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <v>999</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4">
+        <v>888.66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4">
+        <v>256.68</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <v>123.89</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4">
+        <v>90</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4569.6000000000004</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4">
+        <v>700</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4">
+        <v>900</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4">
+        <v>456.6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4">
+        <v>985</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4">
+        <v>98.89</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5073,7 +5467,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>170</v>
@@ -5088,7 +5482,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5102,7 +5496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5116,7 +5510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5130,7 +5524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5144,7 +5538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5158,7 +5552,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5172,7 +5566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5186,7 +5580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5200,7 +5594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5214,7 +5608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5228,7 +5622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5242,7 +5636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5256,7 +5650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5270,7 +5664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5284,7 +5678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5298,7 +5692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5312,7 +5706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5326,7 +5720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5340,7 +5734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5354,7 +5748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5363,337 +5757,6 @@
       </c>
       <c r="C21" s="4">
         <v>69.64</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4">
-        <v>800</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4">
-        <v>546.69000000000005</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="4">
-        <v>123.88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4">
-        <v>596.6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4">
-        <v>785</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4">
-        <v>255</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="4">
-        <v>999</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4">
-        <v>888.66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="4">
-        <v>256.68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4">
-        <v>123.89</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="4">
-        <v>90</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4569.6000000000004</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4">
-        <v>700</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="4">
-        <v>900</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4">
-        <v>456.6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="4">
-        <v>985</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="4">
-        <v>98.89</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>38</v>
@@ -5713,18 +5776,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>173</v>
       </c>
@@ -5747,7 +5810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5761,7 +5824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5775,7 +5838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5789,7 +5852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5803,7 +5866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5817,7 +5880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5831,7 +5894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5845,7 +5908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5859,7 +5922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5873,7 +5936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5887,7 +5950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5901,7 +5964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>

--- a/utils/GuidedKarobarData.xlsx
+++ b/utils/GuidedKarobarData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\VisualStudioProjects\Karobar_Revamp_Selenium\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D435D0-1294-4B94-A58A-C947F0B776AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EEF9DF-09F5-42AF-9736-5F6485309333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,10 @@
     <sheet name="Item Adjustment Data" sheetId="4" r:id="rId4"/>
     <sheet name="Bank Accounts Data" sheetId="5" r:id="rId5"/>
     <sheet name="Transaction Adjustment Data" sheetId="6" r:id="rId6"/>
-    <sheet name="Payments Out Data" sheetId="8" r:id="rId7"/>
-    <sheet name="Payments In Data" sheetId="7" r:id="rId8"/>
-    <sheet name="Expenses Data" sheetId="9" r:id="rId9"/>
-    <sheet name="Other Income Data" sheetId="10" r:id="rId10"/>
+    <sheet name="Payments In Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Payments Out Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Other Income Data" sheetId="10" r:id="rId9"/>
+    <sheet name="Expenses Data" sheetId="9" r:id="rId10"/>
     <sheet name="Sales Data" sheetId="11" r:id="rId11"/>
     <sheet name="Purchase Data" sheetId="12" r:id="rId12"/>
     <sheet name="Sales Return Data" sheetId="13" r:id="rId13"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="233">
   <si>
     <t>Total To Receive</t>
   </si>
@@ -558,16 +558,7 @@
     <t>Paid Amount</t>
   </si>
   <si>
-    <t>Expense Number</t>
-  </si>
-  <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Income Number</t>
   </si>
   <si>
     <t>Invoice No.</t>
@@ -897,21 +888,6 @@
 Charge 2: Rs. 600.67</t>
   </si>
   <si>
-    <t>Billing Items:
-Item 3:  
-9.20 BOX @ Rs. 880.30  
-Item 6:  
-8.10 CAN @ Rs. 369.55  
-Item 10:  
-7.75 BOX @ Rs. 986.75  
-Item 14:  
-5.45 BAGS @ Rs. 458.99  
-Item 20:  
-10.80 BOX @ Rs. 955.99  
-Tax: 13%  
-Charge 1: Rs. 250.98</t>
-  </si>
-  <si>
     <t xml:space="preserve">Billing Items:
 Item 2:  
 4.65 @ Rs. 120.50  
@@ -935,20 +911,6 @@
 8.25 BOX @ Rs. 986.30  
 Tax: 13%  
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Items:
-Item 1:  
-7.30 @ Rs. 650.45  
-Item 4:  
-18.40 PCS @ Rs. 369.99  
-Item 14:  
-5.50 BAGS @ Rs. 458.99  
-Item 20:  
-6.85 BOX @ Rs. 955.99  
-Overall Discount: 10.50%  
-Tax: 13%  
-Charge 1: Rs. 350.75  </t>
   </si>
   <si>
     <t xml:space="preserve">Billing Items:
@@ -1058,8 +1020,51 @@
     <t>P&amp;L closing stock after item adjustment are added</t>
   </si>
   <si>
+    <t>After payment out, dashboard to give and to receive</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>Manage Account: 
-Cash: +5563.45, NMB: +1974.05, NABIL: +18925.63, eSewa:  +1328.5</t>
+Cash: +3979.87, eSewa: +1030.64, NMB: +2617.69, Nabil:  +22236.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Account: 
+Cash: +2610.99,
+eSewa: -4330.31, NMB: -10850.8, NABIL: +16259.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Items:
+Item 1:  
+7.30 @ Rs. 650.45  
+Item 4:  
+18.40 PCS @ Rs. 369.99  
+Item 14:  
+5.50 BAG @ Rs. 458.99  
+Item 20:  
+6.85 BOX @ Rs. 955.99  
+Overall Discount: 10.50%  
+Tax: 13%  
+Charge 1: Rs. 350.75  </t>
+  </si>
+  <si>
+    <t>Billing Items:
+Item 3:  
+9.20 BOX @ Rs. 880.30  
+Item 6:  
+8.10 CAN @ Rs. 369.55  
+Item 10:  
+7.75 BOX @ Rs. 986.75  
+Item 14:  
+5.45 BAG @ Rs. 458.99  
+Item 20:  
+10.80 BOX @ Rs. 955.99  
+Tax: 13%  
+Charge 1: Rs. 250.98</t>
+  </si>
+  <si>
+    <t>Travel &amp; Transportation</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1194,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1237,14 +1242,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1465,10 +1471,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:Q41"/>
+  <dimension ref="B1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1557,28 +1563,28 @@
       <c r="J6" s="6"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="F12" s="23" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="F12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="9"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="M12" s="23" t="s">
+      <c r="K12" s="29"/>
+      <c r="M12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="P12" s="23" t="s">
+      <c r="N12" s="29"/>
+      <c r="P12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="24"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -2102,60 +2108,74 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C37" s="25">
+        <v>222</v>
+      </c>
+      <c r="C37" s="24">
         <f>SUMIF('Party Data'!E2:E100, "Receivable", 'Party Data'!D2:D100)</f>
         <v>3032.12</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>5553.48</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="2:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="22" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="26">
+        <v>1146.95</v>
+      </c>
+      <c r="D41" s="27">
+        <v>31459.49</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C41" s="27">
-        <v>1146.95</v>
-      </c>
-      <c r="D41" s="28">
-        <v>31459.49</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>231</v>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="26">
+        <v>14818.33</v>
+      </c>
+      <c r="D42" s="27">
+        <v>18955.830000000002</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2172,14 +2192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2195,10 +2215,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>166</v>
@@ -2221,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4">
-        <v>4560.6000000000004</v>
+        <v>5860</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>32</v>
@@ -2235,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4">
-        <v>235.69</v>
+        <v>453</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
@@ -2249,10 +2269,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
-        <v>7845</v>
+        <v>658.65</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>38</v>
@@ -2263,13 +2283,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4">
-        <v>562.6</v>
+        <v>1256</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,13 +2297,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
-        <v>78.599999999999994</v>
+        <v>2365.66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2291,10 +2311,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="C7" s="4">
-        <v>984.65</v>
+        <v>1250</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>38</v>
@@ -2305,13 +2325,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
-        <v>1200</v>
+        <v>452</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2319,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
-        <v>660.69</v>
+        <v>365.69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2333,13 +2353,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
-        <v>956.45</v>
+        <v>1256.3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,13 +2367,41 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
-        <v>800.9</v>
+        <v>780</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="4">
+        <v>980</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4">
+        <v>999.99</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2368,8 +2416,8 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2385,13 +2433,13 @@
   <sheetData>
     <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>166</v>
@@ -2437,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D2" s="13">
         <v>2670</v>
@@ -2524,7 +2572,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D4" s="13">
         <v>38510.400000000001</v>
@@ -2567,7 +2615,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D5" s="13">
         <v>1928.92</v>
@@ -2610,7 +2658,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D6" s="13">
         <v>18023.169999999998</v>
@@ -2653,7 +2701,7 @@
         <v>73</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="13">
         <v>52252.06</v>
@@ -2696,7 +2744,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D8" s="13">
         <v>565320.32999999996</v>
@@ -2708,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -2741,7 +2789,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D9" s="13">
         <v>125453.23</v>
@@ -2753,7 +2801,7 @@
         <v>43</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -2783,10 +2831,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D10" s="13">
         <v>77212</v>
@@ -2798,7 +2846,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -2831,7 +2879,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D11" s="13">
         <v>28846.5</v>
@@ -2843,7 +2891,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -2899,7 +2947,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2916,13 +2964,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>166</v>
@@ -2948,10 +2996,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D2" s="15">
         <v>31005.82</v>
@@ -2963,7 +3011,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -2976,7 +3024,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="15">
         <v>30704.52</v>
@@ -2988,7 +3036,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -3019,10 +3067,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D5" s="15">
         <v>46695.85</v>
@@ -3045,7 +3093,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="15">
         <v>55065.36</v>
@@ -3057,7 +3105,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -3067,10 +3115,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" s="15">
         <v>6937.06</v>
@@ -3095,8 +3143,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3112,13 +3160,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>166</v>
@@ -3147,7 +3195,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D2" s="16">
         <v>38711.08</v>
@@ -3159,7 +3207,7 @@
         <v>32</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -3169,10 +3217,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D3" s="16">
         <v>47724.32</v>
@@ -3184,7 +3232,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -3218,7 +3266,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D5" s="16">
         <v>2837.97</v>
@@ -3230,7 +3278,7 @@
         <v>43</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -3243,7 +3291,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D6" s="16">
         <v>35920.129999999997</v>
@@ -3255,7 +3303,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -3273,7 +3321,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3290,13 +3338,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>166</v>
@@ -3322,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D2" s="16">
         <v>30897.62</v>
@@ -3338,7 +3386,7 @@
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3366,7 +3414,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D4" s="16">
         <v>24614.37</v>
@@ -3386,7 +3434,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D5" s="16">
         <v>61067.12</v>
@@ -3406,7 +3454,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D6" s="16">
         <v>142756.10999999999</v>
@@ -3431,7 +3479,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3447,13 +3495,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>166</v>
@@ -3476,14 +3524,14 @@
         <v>59</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D2" s="15">
         <v>29359.85</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G2" s="16"/>
     </row>
@@ -3495,14 +3543,14 @@
         <v>63</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D3" s="15">
         <v>21213.97</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G3" s="16"/>
     </row>
@@ -3514,14 +3562,14 @@
         <v>30</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D4" s="15">
         <v>72272.429999999993</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -3918,8 +3966,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4029,7 +4077,7 @@
         <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
@@ -4056,7 +4104,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H5" s="4">
         <v>369</v>
@@ -4104,7 +4152,7 @@
         <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G7" s="4">
         <v>6.9</v>
@@ -4260,7 +4308,7 @@
         <v>102</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G13" s="4">
         <v>6.6</v>
@@ -4318,7 +4366,7 @@
         <v>132</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G15" s="4">
         <v>12</v>
@@ -4495,7 +4543,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4925,7 +4973,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5105,14 +5153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5134,7 +5182,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>170</v>
@@ -5154,13 +5202,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5168,13 +5216,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4">
-        <v>546.69000000000005</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5182,10 +5230,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4">
-        <v>123.88</v>
+        <v>123.54</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
@@ -5196,13 +5244,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
-        <v>5000</v>
+        <v>8999</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5210,13 +5258,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4">
-        <v>596.6</v>
+        <v>960.36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5224,13 +5272,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4">
-        <v>785</v>
+        <v>456.36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5238,10 +5286,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4">
-        <v>255</v>
+        <v>259.45</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>26</v>
@@ -5252,13 +5300,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4">
-        <v>999</v>
+        <v>780</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5266,16 +5314,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
-        <v>888.66</v>
+        <v>563</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5283,13 +5328,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4">
-        <v>256.68</v>
+        <v>210.6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5300,7 +5345,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="4">
-        <v>123.89</v>
+        <v>9850</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>43</v>
@@ -5311,10 +5356,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4">
-        <v>90</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
@@ -5325,13 +5370,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4">
-        <v>3000</v>
+        <v>4566</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5342,7 +5387,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="4">
-        <v>5000</v>
+        <v>20.03</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>43</v>
@@ -5353,10 +5398,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4">
-        <v>4569.6000000000004</v>
+        <v>98.4</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>38</v>
@@ -5367,13 +5412,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4">
-        <v>700</v>
+        <v>56.6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5381,10 +5426,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4">
-        <v>900</v>
+        <v>79.5</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>26</v>
@@ -5395,10 +5440,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4">
-        <v>456.6</v>
+        <v>42.3</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>32</v>
@@ -5409,10 +5454,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4">
-        <v>985</v>
+        <v>12.6</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>32</v>
@@ -5423,10 +5468,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4">
-        <v>98.89</v>
+        <v>69.64</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>38</v>
@@ -5438,14 +5483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5467,7 +5512,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>170</v>
@@ -5487,13 +5532,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5501,13 +5546,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4">
-        <v>65.650000000000006</v>
+        <v>546.69000000000005</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5515,10 +5560,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4">
-        <v>123.54</v>
+        <v>123.88</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
@@ -5529,13 +5574,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4">
-        <v>8999</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5543,13 +5588,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4">
-        <v>960.36</v>
+        <v>596.6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5557,13 +5602,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4">
-        <v>456.36</v>
+        <v>785</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5571,10 +5616,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4">
-        <v>259.45</v>
+        <v>255</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>26</v>
@@ -5585,13 +5630,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4">
-        <v>780</v>
+        <v>999</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5599,13 +5644,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4">
-        <v>563</v>
+        <v>888.66</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5613,13 +5661,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4">
-        <v>210.6</v>
+        <v>256.68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5630,7 +5678,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="4">
-        <v>9850</v>
+        <v>123.89</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>43</v>
@@ -5641,10 +5689,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4">
-        <v>78.599999999999994</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
@@ -5655,13 +5703,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4">
-        <v>4566</v>
+        <v>3000</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5672,7 +5720,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="4">
-        <v>20.03</v>
+        <v>5000</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>43</v>
@@ -5683,10 +5731,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
-        <v>98.4</v>
+        <v>4569.6000000000004</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>38</v>
@@ -5697,13 +5745,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
-        <v>56.6</v>
+        <v>700</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5711,10 +5759,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
-        <v>79.5</v>
+        <v>900</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>26</v>
@@ -5725,10 +5773,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4">
-        <v>42.3</v>
+        <v>456.6</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>32</v>
@@ -5739,10 +5787,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4">
-        <v>12.6</v>
+        <v>985</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>32</v>
@@ -5753,10 +5801,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4">
-        <v>69.64</v>
+        <v>98.89</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>38</v>
@@ -5768,13 +5816,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5789,10 +5839,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>166</v>
@@ -5815,10 +5865,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4">
-        <v>5860</v>
+        <v>4560.6000000000004</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>32</v>
@@ -5829,10 +5879,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4">
-        <v>453</v>
+        <v>235.69</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
@@ -5843,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>658.65</v>
+        <v>7845</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>38</v>
@@ -5857,13 +5907,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4">
-        <v>1256</v>
+        <v>562.6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5871,13 +5921,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
-        <v>2365.66</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5885,10 +5935,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
-        <v>1250</v>
+        <v>984.65</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>38</v>
@@ -5899,13 +5949,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>452</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5913,13 +5963,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4">
-        <v>365.69</v>
+        <v>660.69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5927,13 +5977,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4">
-        <v>1256.3</v>
+        <v>956.45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5941,41 +5991,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
-        <v>780</v>
+        <v>800.9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="4">
-        <v>980</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4">
-        <v>999.99</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/utils/GuidedKarobarData.xlsx
+++ b/utils/GuidedKarobarData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\VisualStudioProjects\Karobar_Revamp_Selenium\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EEF9DF-09F5-42AF-9736-5F6485309333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB575F0-ED05-48EB-97BD-8C6A3B1BC5E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Overview" sheetId="1" r:id="rId1"/>
@@ -1473,30 +1473,30 @@
   </sheetPr>
   <dimension ref="B1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>5440.1</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>2420.34</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>8505.69</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1519.05</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>2914.94</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>4380.68</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>873.99</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>3729.12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>73</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>91791.45</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
@@ -2107,14 +2107,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="28" t="s">
         <v>217</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>222</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>5553.48</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>218</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
         <v>225</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>219</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>223</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
         <v>226</v>
       </c>
@@ -2202,18 +2202,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>227</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2416,22 +2416,22 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="18" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="18" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>174</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
     </row>
-    <row r="6" spans="1:29" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
     </row>
-    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" spans="1:29" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="205.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
-    <row r="10" spans="1:29" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2916,22 +2916,22 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="17"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="17"/>
     </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="17"/>
     </row>
   </sheetData>
@@ -2951,18 +2951,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="409.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3147,18 +3147,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="185.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3324,19 +3324,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="19" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="19" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="19" customWidth="1"/>
     <col min="8" max="8" width="30" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="19"/>
+    <col min="9" max="9" width="14.6640625" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3482,18 +3482,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3589,15 +3589,15 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -3970,19 +3970,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="5" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>130</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -4546,18 +4546,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>45.69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>157</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>566.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>65.98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>157</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>635.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>157</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>98.45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>157</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>875.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>156</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>452.96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>157</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>365.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>156</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>425.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>157</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>690.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>156</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>120.93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>157</v>
       </c>
@@ -4915,12 +4915,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -4976,17 +4976,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>163</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>56.36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>214.98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>5699.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>458.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>157</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>535.36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
@@ -5163,18 +5163,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5493,18 +5493,18 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5826,18 +5826,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>227</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>

--- a/utils/GuidedKarobarData.xlsx
+++ b/utils/GuidedKarobarData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\VisualStudioProjects\Karobar_Revamp_Selenium\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB575F0-ED05-48EB-97BD-8C6A3B1BC5E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A68C25-4AD1-44F4-A8A6-D9209C8D9619}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1477,26 +1477,26 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="8" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>5440.1</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>2420.34</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>8505.69</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1519.05</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>2914.94</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>4380.68</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>873.99</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>3729.12</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>73</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>91791.45</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
@@ -2107,14 +2107,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
         <v>217</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>222</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>5553.48</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>218</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="22" t="s">
         <v>225</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>219</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>223</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
         <v>226</v>
       </c>
@@ -2202,18 +2202,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>227</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2420,18 +2420,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="18" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="18" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>174</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
     </row>
-    <row r="6" spans="1:29" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
     </row>
-    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
-    <row r="9" spans="1:29" ht="205.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
-    <row r="10" spans="1:29" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2916,22 +2916,22 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="17"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="17"/>
     </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="17"/>
     </row>
   </sheetData>
@@ -2951,18 +2951,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="409.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3147,18 +3147,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="185.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3324,19 +3324,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="19" customWidth="1"/>
-    <col min="4" max="6" width="20.109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="19" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="30" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="12.6640625" style="19"/>
+    <col min="9" max="9" width="14.7109375" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="12.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3482,18 +3482,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>174</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3589,15 +3589,15 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -3970,19 +3970,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>130</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -4546,18 +4546,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>45.69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>157</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>566.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>65.98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>157</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>635.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>157</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>98.45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>157</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>875.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>156</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>452.96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>157</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>365.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>156</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>425.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>157</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>690.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>156</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>120.93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>157</v>
       </c>
@@ -4915,12 +4915,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -4976,17 +4976,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>163</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>56.36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>214.98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>5699.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>458.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>157</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>535.36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
@@ -5163,18 +5163,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5493,18 +5493,18 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5826,18 +5826,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>227</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>

--- a/utils/GuidedKarobarData.xlsx
+++ b/utils/GuidedKarobarData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\VisualStudioProjects\Karobar_Revamp_Selenium\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A68C25-4AD1-44F4-A8A6-D9209C8D9619}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260342C3-C819-45E8-BB3E-6CB705F2C7D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="232">
   <si>
     <t>Total To Receive</t>
   </si>
@@ -54,11 +54,6 @@
     <t>Overall Account Balance</t>
   </si>
   <si>
-    <t xml:space="preserve">
-543793.41 
-(in app)</t>
-  </si>
-  <si>
     <t>Expense (December)</t>
   </si>
   <si>
@@ -117,10 +112,6 @@
   </si>
   <si>
     <t>Cash</t>
-  </si>
-  <si>
-    <t>Issue
- 12,426.1</t>
   </si>
   <si>
     <t>Marketing</t>
@@ -1066,12 +1057,15 @@
   <si>
     <t>Travel &amp; Transportation</t>
   </si>
+  <si>
+    <t>Dashboard Data Overview</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1094,13 +1088,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1138,7 +1125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,12 +1152,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -1191,23 +1172,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1228,7 +1202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1237,20 +1211,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1471,723 +1451,788 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:Q42"/>
+  <dimension ref="B1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>441516.69</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>786325.11</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="24"/>
+      <c r="S3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>112602.69</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-85622.64</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4637.6000000000004</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4.59</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2585.12</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="28">
+        <v>12426.1</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>905</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="4">
+        <v>5440.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>547314.46</v>
-      </c>
-      <c r="D5" s="8" t="s">
+        <v>543793.41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4">
+        <v>98891.45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-76.31</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4">
+        <v>495654.13</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3145.66</v>
+      </c>
+      <c r="R5" s="24"/>
+      <c r="S5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2420.34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>786325.11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4">
+        <v>53420.29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4">
+        <v>32.287999999999997</v>
+      </c>
+      <c r="K6" s="4">
+        <v>28058.63</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4">
+        <v>31538.880000000001</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1621.69</v>
+      </c>
+      <c r="R6" s="24"/>
+      <c r="S6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="4">
+        <v>8505.69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-85622.64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2733.6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-361.97</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4174.3</v>
+      </c>
+      <c r="O7" s="24"/>
+      <c r="P7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>8090</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1519.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C8" s="3">
+        <v>16677.29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3114.52</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2914.94</v>
+      </c>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3">
-        <v>16677.29</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>966780.56</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="F12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="M12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="P12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C9" s="3">
+        <v>968231.39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3213.77</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="4">
+        <v>9.6140000000000008</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3248.79</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4">
+        <v>364</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4">
-        <v>4637.6000000000004</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4.59</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2585.12</v>
+      <c r="H10" s="24"/>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4232.6899999999996</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4">
+        <v>22691.31</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-81.388999999999996</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-318.7</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4">
+        <v>867.6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-25.25</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4">
+        <v>107774.43</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="4">
-        <v>15947.15</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="4">
-        <v>905</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>5440.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4">
-        <v>98891.45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-76.31</v>
-      </c>
-      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1984.77</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="4">
+        <v>57.180999999999997</v>
+      </c>
+      <c r="K15" s="4">
+        <v>45011.06</v>
+      </c>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5086.3999999999996</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-61.6</v>
+      </c>
+      <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="4">
-        <v>495654.13</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="4">
-        <v>3145.66</v>
-      </c>
-      <c r="P15" s="4" t="s">
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="5:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4">
+        <v>168</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2777.07</v>
+      </c>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="5:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1609.89</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-32.86</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="4">
+        <v>60784.35</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="4">
+        <v>51929.91</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="4">
-        <v>2420.34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4">
-        <v>53420.29</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="4">
-        <v>32.287999999999997</v>
-      </c>
-      <c r="H16" s="4">
-        <v>28058.63</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="4">
-        <v>31538.880000000001</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1621.69</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>8505.69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2733.6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="4">
-        <v>-361.97</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="I20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="4">
+        <v>49.018000000000001</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3729.12</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="4">
+        <v>23591.78</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="4">
+        <v>38.03</v>
+      </c>
+      <c r="K21" s="4">
+        <v>91791.45</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="4">
+        <v>104084.22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7114.89</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-12.683</v>
+      </c>
+      <c r="K23" s="4">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="4">
-        <v>4174.3</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="4">
-        <v>8090</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1519.05</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3114.52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="4">
-        <v>2914.94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3213.77</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="4">
-        <v>9.6140000000000008</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3553.07</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="4">
-        <v>364</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="4">
-        <v>6.75</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4380.68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="4">
-        <v>22691.31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="4">
-        <v>-81.388999999999996</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="4">
-        <v>56.6</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="4">
-        <v>-318.7</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="4">
-        <v>867.6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="4">
-        <v>-25.25</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="4">
-        <v>107774.43</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1984.77</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="4">
-        <v>57.180999999999997</v>
-      </c>
-      <c r="H25" s="4">
-        <v>45011.06</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="4">
-        <v>5086.3999999999996</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="4">
-        <v>-61.6</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="4">
-        <v>168</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1.9039999999999999</v>
-      </c>
-      <c r="H27" s="4">
-        <v>873.99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1609.89</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="4">
-        <v>-32.86</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="4">
-        <v>60784.35</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="4">
-        <v>51929.91</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="4">
-        <v>49.018000000000001</v>
-      </c>
-      <c r="H30" s="4">
-        <v>3729.12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="4">
-        <v>23591.78</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="4">
-        <v>38.03</v>
-      </c>
-      <c r="H31" s="4">
-        <v>91791.45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="4">
-        <v>104084.22</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="4">
-        <v>7114.89</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="4">
-        <v>-12.683</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="24">
+    </row>
+    <row r="24" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="5:12" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="19">
         <f>SUMIF('Party Data'!E2:E100, "Receivable", 'Party Data'!D2:D100)</f>
         <v>3032.12</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="20">
         <v>5553.48</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="22" t="s">
+    </row>
+    <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="21">
+        <v>1146.95</v>
+      </c>
+      <c r="D41" s="22">
+        <v>31459.49</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="26">
-        <v>1146.95</v>
-      </c>
-      <c r="D41" s="27">
-        <v>31459.49</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="26">
+      <c r="C42" s="21">
         <v>14818.33</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="22">
         <v>18955.830000000002</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>229</v>
+      <c r="E42" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="P12:Q12"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2202,206 +2247,206 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4">
         <v>5860</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>453</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4">
         <v>658.65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>1256</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>2365.66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="4">
         <v>1250</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>452</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>365.69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
         <v>1256.3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>780</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" s="4">
         <v>980</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4">
         <v>999.99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2416,523 +2461,523 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="18" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="13" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+    </row>
+    <row r="2" spans="1:29" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2670</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2670</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+    </row>
+    <row r="3" spans="1:29" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>1870.69</v>
+      </c>
+      <c r="E3" s="8">
+        <v>888.88</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="8">
+        <v>38510.400000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>8000</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+    </row>
+    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1928.92</v>
+      </c>
+      <c r="E5" s="8">
+        <v>826.9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" ht="64.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18023.169999999998</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9806.7999999999993</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+    </row>
+    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-    </row>
-    <row r="2" spans="1:29" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="D7" s="8">
+        <v>52252.06</v>
+      </c>
+      <c r="E7" s="8">
+        <v>22563.98</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+    </row>
+    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="8">
+        <v>565320.32999999996</v>
+      </c>
+      <c r="E8" s="8">
+        <v>459863.69</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2670</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2670</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-    </row>
-    <row r="3" spans="1:29" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+    </row>
+    <row r="9" spans="1:29" ht="205.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="8">
+        <v>125453.23</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12589.69</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13">
-        <v>1870.69</v>
-      </c>
-      <c r="E3" s="13">
-        <v>888.88</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-    </row>
-    <row r="4" spans="1:29" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="13">
-        <v>38510.400000000001</v>
-      </c>
-      <c r="E4" s="13">
-        <v>8000</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-    </row>
-    <row r="5" spans="1:29" ht="237.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1928.92</v>
-      </c>
-      <c r="E5" s="13">
-        <v>826.9</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-    </row>
-    <row r="6" spans="1:29" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="13">
-        <v>18023.169999999998</v>
-      </c>
-      <c r="E6" s="13">
-        <v>9806.7999999999993</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-    </row>
-    <row r="7" spans="1:29" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="G9" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="13">
-        <v>52252.06</v>
-      </c>
-      <c r="E7" s="13">
-        <v>22563.98</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-    </row>
-    <row r="8" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="13">
-        <v>565320.32999999996</v>
-      </c>
-      <c r="E8" s="13">
-        <v>459863.69</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-    </row>
-    <row r="9" spans="1:29" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="13">
-        <v>125453.23</v>
-      </c>
-      <c r="E9" s="13">
-        <v>12589.69</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-    </row>
-    <row r="10" spans="1:29" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+    </row>
+    <row r="10" spans="1:29" ht="224.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="B10" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="8">
         <v>77212</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>77212</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-    </row>
-    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+    </row>
+    <row r="11" spans="1:29" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="8">
         <v>28846.5</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>28000</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-    </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="17"/>
-    </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2951,186 +2996,186 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="14" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="F1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="10">
+        <v>31005.82</v>
+      </c>
+      <c r="E2" s="10">
+        <v>31005.82</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="10">
+        <v>30704.52</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15360.96</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>7893.64</v>
+      </c>
+      <c r="E4" s="10">
+        <v>343.55</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="15">
-        <v>31005.82</v>
-      </c>
-      <c r="E2" s="15">
-        <v>31005.82</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="D5" s="10">
+        <v>46695.85</v>
+      </c>
+      <c r="E5" s="10">
+        <v>46695.85</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="10">
+        <v>55065.36</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3569.65</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="15">
-        <v>30704.52</v>
-      </c>
-      <c r="E3" s="15">
-        <v>15360.96</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
-        <v>7893.64</v>
-      </c>
-      <c r="E4" s="15">
-        <v>343.55</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="15">
-        <v>46695.85</v>
-      </c>
-      <c r="E5" s="15">
-        <v>46695.85</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="15">
-        <v>55065.36</v>
-      </c>
-      <c r="E6" s="15">
-        <v>3569.65</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="409.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>6937.06</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>6937.06</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3147,166 +3192,166 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="14" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="185.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="F1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="11">
         <v>38711.08</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="11">
+        <v>47724.32</v>
+      </c>
+      <c r="E3" s="11">
+        <v>47724.32</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="11">
+        <v>568.69000000000005</v>
+      </c>
+      <c r="E4" s="11">
+        <v>86.46</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2837.97</v>
+      </c>
+      <c r="E5" s="11">
+        <v>837</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="11">
+        <v>35920.129999999997</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5986.99</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="16">
-        <v>47724.32</v>
-      </c>
-      <c r="E3" s="16">
-        <v>47724.32</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="16">
-        <v>568.69000000000005</v>
-      </c>
-      <c r="E4" s="16">
-        <v>86.46</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2837.97</v>
-      </c>
-      <c r="E5" s="16">
-        <v>837</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="16">
-        <v>35920.129999999997</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5986.99</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3324,146 +3369,146 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="19" customWidth="1"/>
-    <col min="4" max="6" width="20.140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="30" style="19" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="12.7109375" style="19"/>
+    <col min="1" max="1" width="14.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="14" customWidth="1"/>
+    <col min="4" max="6" width="20.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="30" style="14" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="14" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="11">
+        <v>30897.62</v>
+      </c>
+      <c r="E2" s="15">
+        <v>30897.62</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="11">
+        <v>4589.6899999999996</v>
+      </c>
+      <c r="E3" s="11">
+        <v>458.69</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="16">
-        <v>30897.62</v>
-      </c>
-      <c r="E2" s="20">
-        <v>30897.62</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="16">
-        <v>4589.6899999999996</v>
-      </c>
-      <c r="E3" s="16">
-        <v>458.69</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <v>24614.37</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="11">
         <v>61067.12</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>1067.02</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="F5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="11">
+        <v>142756.10999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>42598.66</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="16">
-        <v>142756.10999999999</v>
-      </c>
-      <c r="E6" s="16">
-        <v>42598.66</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3482,96 +3527,96 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="10">
         <v>29359.85</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="10">
         <v>21213.97</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="10">
         <v>72272.429999999993</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3589,37 +3634,37 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C2" s="4">
         <v>9800000001</v>
@@ -3628,15 +3673,15 @@
         <v>568</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4">
         <v>9800000002</v>
@@ -3645,15 +3690,15 @@
         <v>1266</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4">
         <v>9800000003</v>
@@ -3662,15 +3707,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4">
         <v>9800000004</v>
@@ -3679,15 +3724,15 @@
         <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
         <v>9800000005</v>
@@ -3696,15 +3741,15 @@
         <v>136</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4">
         <v>9800000006</v>
@@ -3713,15 +3758,15 @@
         <v>785</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4">
         <v>9800000007</v>
@@ -3730,15 +3775,15 @@
         <v>364</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4">
         <v>9800000008</v>
@@ -3747,15 +3792,15 @@
         <v>269</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4">
         <v>9800000009</v>
@@ -3764,15 +3809,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4">
         <v>9800000010</v>
@@ -3781,15 +3826,15 @@
         <v>789</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4">
         <v>9800000011</v>
@@ -3798,15 +3843,15 @@
         <v>852</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="4">
         <v>9800000012</v>
@@ -3815,15 +3860,15 @@
         <v>634</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4">
         <v>9800000013</v>
@@ -3832,15 +3877,15 @@
         <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4">
         <v>9800000014</v>
@@ -3849,15 +3894,15 @@
         <v>87</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4">
         <v>9800000015</v>
@@ -3866,15 +3911,15 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4">
         <v>9800000016</v>
@@ -3883,15 +3928,15 @@
         <v>158.44999999999999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4">
         <v>9800000017</v>
@@ -3900,15 +3945,15 @@
         <v>89.12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4">
         <v>9800000018</v>
@@ -3917,15 +3962,15 @@
         <v>698.03</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4">
         <v>9800000019</v>
@@ -3934,15 +3979,15 @@
         <v>888</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4">
         <v>9800000020</v>
@@ -3951,7 +3996,7 @@
         <v>769</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3970,59 +4015,59 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="5" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>23.65</v>
@@ -4034,18 +4079,18 @@
         <v>250</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4">
         <v>65</v>
@@ -4057,27 +4102,27 @@
         <v>360</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4">
         <v>45.9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
@@ -4089,22 +4134,22 @@
         <v>660</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H5" s="4">
         <v>369</v>
@@ -4113,18 +4158,18 @@
         <v>65</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D6" s="4"/>
       <c r="H6" s="4">
@@ -4132,27 +4177,27 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4">
         <v>45.9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G7" s="4">
         <v>6.9</v>
@@ -4164,24 +4209,24 @@
         <v>66</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="4">
         <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" s="4">
         <v>656</v>
@@ -4190,27 +4235,27 @@
         <v>455</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4">
         <v>23.88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G9" s="4">
         <v>1000</v>
@@ -4222,18 +4267,18 @@
         <v>566</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4">
         <v>12.06</v>
@@ -4243,24 +4288,24 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4">
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11" s="4">
         <v>986</v>
@@ -4269,18 +4314,18 @@
         <v>653</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="4"/>
       <c r="H12" s="4">
@@ -4288,27 +4333,27 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
         <v>52.36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G13" s="4">
         <v>6.6</v>
@@ -4320,24 +4365,24 @@
         <v>65.650000000000006</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4">
         <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H14" s="4">
         <v>875</v>
@@ -4346,27 +4391,27 @@
         <v>69.5</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4">
         <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G15" s="4">
         <v>12</v>
@@ -4378,24 +4423,24 @@
         <v>69.03</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4">
         <v>25.9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H16" s="4">
         <v>788</v>
@@ -4404,18 +4449,18 @@
         <v>69</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4"/>
       <c r="H17" s="4">
@@ -4423,27 +4468,27 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4">
         <v>45.6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G18" s="4">
         <v>22.3</v>
@@ -4453,18 +4498,18 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4">
         <v>78</v>
@@ -4476,18 +4521,18 @@
         <v>3000</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4"/>
       <c r="H20" s="4">
@@ -4495,27 +4540,27 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4">
         <v>36.630000000000003</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G21" s="4">
         <v>12</v>
@@ -4527,7 +4572,7 @@
         <v>588.88</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4546,46 +4591,46 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4">
         <v>26.5</v>
@@ -4594,29 +4639,29 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4">
         <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="4">
         <v>45.69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
         <v>36.4</v>
@@ -4625,12 +4670,12 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4">
         <v>30.3</v>
@@ -4639,12 +4684,12 @@
         <v>566.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <v>12.06</v>
@@ -4653,29 +4698,29 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4">
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4">
         <v>7.6</v>
@@ -4684,12 +4729,12 @@
         <v>65.98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4">
         <v>53.6</v>
@@ -4698,114 +4743,114 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4">
         <v>12.6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="4">
         <v>635.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4">
         <v>25.9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="4">
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E12" s="4">
         <v>1220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13" s="4">
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E14" s="4">
         <v>98.45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>7.9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E15" s="4">
         <v>875.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4">
         <v>8.9</v>
@@ -4814,86 +4859,86 @@
         <v>452.96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4">
         <v>9.6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E17" s="4">
         <v>365.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4">
         <v>32.69</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E18" s="4">
         <v>425.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4">
         <v>80.09</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="4">
         <v>690.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
         <v>90.89</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E20" s="4">
         <v>120.93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4">
         <v>63.36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E21" s="4">
         <v>500</v>
@@ -4915,49 +4960,49 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4976,172 +5021,172 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
         <v>4560</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4">
         <v>56.36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>214.98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4">
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4">
         <v>123.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>5699.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <v>458.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>12.66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4">
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4">
         <v>535.36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4">
         <v>45.96</v>
@@ -5163,318 +5208,318 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>35</v>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="4">
         <v>65.650000000000006</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>46</v>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="4">
         <v>123.54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>49</v>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="4">
         <v>8999</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4">
         <v>960.36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>77</v>
+      <c r="B7" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="4">
         <v>456.36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>75</v>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="4">
         <v>259.45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>71</v>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="4">
         <v>780</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4">
         <v>563</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>67</v>
+      <c r="B11" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="4">
         <v>210.6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="4">
         <v>9850</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>57</v>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="4">
         <v>78.599999999999994</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>46</v>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="4">
         <v>4566</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>49</v>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="4">
         <v>20.03</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>49</v>
+      <c r="B16" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="4">
         <v>98.4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>55</v>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="4">
         <v>56.6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>73</v>
+      <c r="B18" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="4">
         <v>79.5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>69</v>
+      <c r="B19" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="4">
         <v>42.3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>63</v>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="4">
         <v>12.6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>61</v>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="4">
         <v>69.64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5493,321 +5538,321 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4">
         <v>800</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="4">
         <v>546.69000000000005</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>77</v>
+      <c r="B4" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>123.88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>63</v>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="4">
         <v>5000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4">
         <v>596.6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>59</v>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>785</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>65</v>
+      <c r="B8" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="4">
         <v>255</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>67</v>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="4">
         <v>999</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4">
         <v>888.66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>71</v>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="4">
         <v>256.68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>59</v>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="4">
         <v>123.89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>67</v>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="4">
         <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>59</v>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="4">
         <v>3000</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>49</v>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="4">
         <v>5000</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>4569.6000000000004</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="4">
         <v>700</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>46</v>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="4">
         <v>900</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>41</v>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="4">
         <v>456.6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>69</v>
+      <c r="B20" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="4">
         <v>985</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>67</v>
+      <c r="B21" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="4">
         <v>98.89</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5826,178 +5871,178 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4">
         <v>4560.6000000000004</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4">
         <v>235.69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4">
         <v>7845</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4">
         <v>562.6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>78.599999999999994</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <v>984.65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4">
         <v>1200</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4">
         <v>660.69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <v>956.45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>800.9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
